--- a/Collections/США/Commemorative_coins_regular_quality.xlsx
+++ b/Collections/США/Commemorative_coins_regular_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;State&amp;Territorial_Quarters&quot;" sheetId="5" r:id="rId1"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="535">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -2176,6 +2176,9 @@
   </si>
   <si>
     <t>High convenience set of table with prices and mintages, plus interestion information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -4781,11 +4784,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:L1"/>
+      <selection pane="bottomRight" activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4884,7 +4887,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="14">
         <v>0</v>
@@ -5022,7 +5025,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="14">
         <v>1</v>
@@ -5114,7 +5117,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="14">
         <v>0</v>
@@ -5156,7 +5159,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="14">
         <v>0</v>
@@ -5198,7 +5201,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="14">
         <v>0</v>
@@ -5240,7 +5243,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="14">
         <v>0</v>
@@ -5324,7 +5327,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="14">
         <v>0</v>
@@ -5366,7 +5369,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="14">
         <v>0</v>
@@ -5408,7 +5411,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="14">
         <v>1</v>
@@ -5492,7 +5495,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="14">
         <v>0</v>
@@ -5534,7 +5537,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="14">
         <v>0</v>
@@ -5870,7 +5873,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="14">
         <v>1</v>
@@ -6290,7 +6293,7 @@
         <v>15</v>
       </c>
       <c r="I36" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="14">
         <v>0</v>
@@ -6332,7 +6335,7 @@
         <v>15</v>
       </c>
       <c r="I37" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="14">
         <v>0</v>
@@ -6374,7 +6377,7 @@
         <v>15</v>
       </c>
       <c r="I38" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="14">
         <v>0</v>
@@ -6416,7 +6419,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="14">
         <v>0</v>
@@ -6458,7 +6461,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="14">
         <v>0</v>
@@ -6500,7 +6503,7 @@
         <v>15</v>
       </c>
       <c r="I41" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="14">
         <v>0</v>
@@ -6542,7 +6545,7 @@
         <v>15</v>
       </c>
       <c r="I42" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="14">
         <v>0</v>
@@ -6582,7 +6585,7 @@
         <v>15</v>
       </c>
       <c r="I43" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="14">
         <v>0</v>
@@ -6622,7 +6625,7 @@
         <v>15</v>
       </c>
       <c r="I44" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="14">
         <v>0</v>
@@ -6742,7 +6745,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="14">
         <v>0</v>
@@ -6794,7 +6797,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>2019</v>
       </c>
@@ -6814,7 +6817,7 @@
         <v>246</v>
       </c>
       <c r="I49" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="14">
         <v>0</v>
@@ -6830,7 +6833,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>2019</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>2019</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>2019</v>
       </c>
@@ -6938,7 +6941,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>2020</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>2020</v>
       </c>
@@ -7006,7 +7009,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>2020</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>2020</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>2020</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>2021</v>
       </c>
@@ -7142,11 +7145,14 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="20"/>
+      <c r="N59" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10696,7 +10702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/Collections/США/Commemorative_coins_regular_quality.xlsx
+++ b/Collections/США/Commemorative_coins_regular_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;State&amp;Territorial_Quarters&quot;" sheetId="5" r:id="rId1"/>
@@ -4784,11 +4784,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N59" sqref="N59"/>
+      <selection pane="bottomRight" activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>15</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>15</v>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>15</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>15</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>15</v>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>15</v>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>15</v>
@@ -5627,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>15</v>
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>15</v>
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>15</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>15</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="15" t="s">
         <v>15</v>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="15" t="s">
         <v>15</v>
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="15" t="s">
         <v>15</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="15" t="s">
         <v>15</v>
@@ -5963,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>15</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>15</v>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>15</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="15" t="s">
         <v>15</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="15" t="s">
         <v>15</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>15</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="15" t="s">
         <v>15</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
         <v>15</v>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="15" t="s">
         <v>15</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="15" t="s">
         <v>15</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="15" t="s">
         <v>15</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="15" t="s">
         <v>15</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="15" t="s">
         <v>15</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="15" t="s">
         <v>15</v>
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="15" t="s">
         <v>15</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="15" t="s">
         <v>15</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="15" t="s">
         <v>15</v>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="15" t="s">
         <v>15</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="14">
         <v>0</v>
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="14">
         <v>0</v>
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="14">
         <v>0</v>
@@ -6895,14 +6895,14 @@
         <v>1</v>
       </c>
       <c r="K51" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="14">
         <v>0</v>
       </c>
       <c r="M51" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="14">
         <v>0</v>
@@ -7162,12 +7162,12 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:J12 I13:K58 L48 L50:L51">
+  <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
     <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J12 I13:K58 L48 L50:L51">
+  <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7292,10 +7292,10 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9230,11 +9230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9331,7 +9331,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="33">
         <v>1</v>

--- a/Collections/США/Commemorative_coins_regular_quality.xlsx
+++ b/Collections/США/Commemorative_coins_regular_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;State&amp;Territorial_Quarters&quot;" sheetId="5" r:id="rId1"/>
@@ -8556,11 +8556,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9148,14 +9148,14 @@
         <v>14</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
       <c r="I22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
   </sheetData>
@@ -9230,11 +9230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Collections/США/Commemorative_coins_regular_quality.xlsx
+++ b/Collections/США/Commemorative_coins_regular_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;State&amp;Territorial_Quarters&quot;" sheetId="5" r:id="rId1"/>
@@ -4788,7 +4788,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R40" sqref="R40"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="14">
         <v>1</v>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" s="14">
         <v>1</v>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="M50" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7291,11 +7291,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8451,7 +8451,7 @@
         <v>448</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>450</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8556,11 +8556,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9234,7 +9234,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9334,11 +9334,11 @@
         <v>1</v>
       </c>
       <c r="H4" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
